--- a/FY2021-Docs/FY 2021 Changed Validations.xlsx
+++ b/FY2021-Docs/FY 2021 Changed Validations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\581804\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117C5138-7C4C-4B03-AF5D-06C73D1B6316}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9F475A6-BD52-4F73-9B82-4D1E596C1E8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{D970ECA1-B008-461E-9143-B2608F383A2E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{D970ECA1-B008-461E-9143-B2608F383A2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="378">
   <si>
     <t>All Validations are subject to change based upon technical review.</t>
   </si>
@@ -719,27 +719,18 @@
     <t>metricID</t>
   </si>
   <si>
-    <t>metricID does not match an existing Performance Metric for UII: xxxx</t>
-  </si>
-  <si>
     <t>Check against performance metrics table</t>
   </si>
   <si>
     <t>agencyMetricID</t>
   </si>
   <si>
-    <t>agencyMetricID does not match an existing Performance Metric for UII: xxxx</t>
-  </si>
-  <si>
     <t>Project Plan</t>
   </si>
   <si>
     <t>Projects Table</t>
   </si>
   <si>
-    <t>One of metricID, agencyMetricID, or newMetricDescription is required for Project operation: add</t>
-  </si>
-  <si>
     <t>Require new Projects to provide Performance Metric linkage</t>
   </si>
   <si>
@@ -777,9 +768,6 @@
   </si>
   <si>
     <t>measurementCondition is required and should be provided for active projects not linked to existing metrics.</t>
-  </si>
-  <si>
-    <t>Field measurementCondition with value XXXX only allows integers from the set: {over target, under target}.</t>
   </si>
   <si>
     <t>measurementCondition only allows for over target/under target</t>
@@ -1155,7 +1143,31 @@
     <t># CIO Ratings should be submitted for Type 01 and 05 investments.</t>
   </si>
   <si>
-    <t># Deployment Reports must be submitted for Active or Future Top Level Activities with multipleReleases = "Yes".</t>
+    <t>metricID does not match an existing active Performance Metric for UII: xxxx</t>
+  </si>
+  <si>
+    <t>agencyMetricID does not match an existing active Performance Metric for UII: xxxx</t>
+  </si>
+  <si>
+    <t>Field measurementCondition with value XXXX only allows values from the set: {over target, under target}.</t>
+  </si>
+  <si>
+    <t>lastMajorTechRefresh</t>
+  </si>
+  <si>
+    <t>anticipatedTechRefresh</t>
+  </si>
+  <si>
+    <t>lastMajorTechRefresh is required if customDeveloped is 'No'.</t>
+  </si>
+  <si>
+    <t>anticipatedTechRefresh is required if customDeveloped is 'No'.</t>
+  </si>
+  <si>
+    <t># Deployment Reports must be submitted for Activities with a Completion Date following 8/31/2019.</t>
+  </si>
+  <si>
+    <t>One of metricID, agencyMetricID, or newMetricDescription is required for Projects with a completion date after 8/31/2019</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1227,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1237,6 +1249,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,7 +1299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1302,7 +1320,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1688,9 +1708,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B5D2C0-6AAA-4E8B-AE82-BFCDB09ACED9}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S162"/>
+  <dimension ref="A1:S164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="H118" sqref="H118"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1709,7 +1731,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="11"/>
@@ -2684,99 +2706,99 @@
       </c>
     </row>
     <row r="32" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="4" t="s">
+      <c r="F34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J32" s="4" t="s">
+      <c r="I34" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" s="4" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
@@ -2784,7 +2806,7 @@
         <v>74</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>76</v>
@@ -2793,94 +2815,94 @@
         <v>96</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I35" s="2" t="s">
+      <c r="F36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I36" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J36" s="7" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>122</v>
+        <v>74</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>124</v>
+      <c r="G37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>125</v>
+        <v>19</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>122</v>
+      <c r="B38" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>117</v>
@@ -2889,22 +2911,22 @@
         <v>118</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -2921,7 +2943,7 @@
         <v>118</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>16</v>
@@ -2930,7 +2952,7 @@
         <v>32</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>34</v>
@@ -2953,7 +2975,7 @@
         <v>118</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>16</v>
@@ -2962,7 +2984,7 @@
         <v>32</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>34</v>
@@ -2985,7 +3007,7 @@
         <v>118</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>16</v>
@@ -2994,7 +3016,7 @@
         <v>32</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>34</v>
@@ -3017,7 +3039,7 @@
         <v>118</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>16</v>
@@ -3026,7 +3048,7 @@
         <v>32</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>34</v>
@@ -3049,7 +3071,7 @@
         <v>118</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>16</v>
@@ -3058,7 +3080,7 @@
         <v>32</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>34</v>
@@ -3081,7 +3103,7 @@
         <v>118</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>16</v>
@@ -3090,7 +3112,7 @@
         <v>32</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>34</v>
@@ -3113,16 +3135,16 @@
         <v>118</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>34</v>
@@ -3145,16 +3167,16 @@
         <v>118</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>34</v>
@@ -3177,39 +3199,39 @@
         <v>118</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>144</v>
+      <c r="A48" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>16</v>
@@ -3217,91 +3239,91 @@
       <c r="G48" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H48" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>148</v>
+      <c r="H48" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
-        <v>149</v>
+      <c r="A49" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B50" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C51" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="4" t="s">
         <v>149</v>
       </c>
       <c r="E51" s="5" t="s">
@@ -3310,81 +3332,81 @@
       <c r="F51" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G51" s="5" t="s">
-        <v>17</v>
+      <c r="G51" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="H51" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="I51" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J51" s="7" t="s">
+      <c r="I53" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J53" s="7" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J53" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.35">
@@ -3401,22 +3423,22 @@
         <v>149</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>34</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.35">
@@ -3433,22 +3455,22 @@
         <v>149</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>165</v>
+        <v>80</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>34</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>164</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.35">
@@ -3468,19 +3490,19 @@
         <v>162</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>166</v>
+        <v>17</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>34</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.35">
@@ -3497,7 +3519,7 @@
         <v>149</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>31</v>
@@ -3506,7 +3528,7 @@
         <v>17</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>34</v>
@@ -3529,22 +3551,22 @@
         <v>149</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>170</v>
+        <v>80</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>34</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.35">
@@ -3564,19 +3586,19 @@
         <v>168</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="I59" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="I59" s="4" t="s">
         <v>34</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.35">
@@ -3593,22 +3615,22 @@
         <v>149</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H60" s="2" t="s">
-        <v>173</v>
+      <c r="H60" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>174</v>
+      <c r="J60" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.35">
@@ -3625,22 +3647,22 @@
         <v>149</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>164</v>
+        <v>80</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.35">
@@ -3663,219 +3685,215 @@
         <v>16</v>
       </c>
       <c r="G62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="H64" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="I62" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J62" s="5" t="s">
+      <c r="I64" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J64" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="K62" s="4" t="s">
+      <c r="K64" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="L62" s="2" t="s">
+      <c r="L64" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="M62" s="4" t="s">
+      <c r="M64" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="N62" s="2" t="s">
+      <c r="N64" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="O62" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P62" s="2" t="s">
+      <c r="O64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P64" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="Q62" s="5" t="s">
+      <c r="Q64" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="R62" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="S62" s="5" t="s">
+      <c r="R64" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S64" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A63" s="7" t="s">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A65" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G65" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="H65" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-    </row>
-    <row r="65" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="J65" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J66" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-    </row>
-    <row r="66" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
     </row>
     <row r="67" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C67" s="4" t="s">
+      <c r="B67" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="I67" s="4" t="s">
+      <c r="E67" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I67" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J67" s="4" t="s">
+      <c r="J67" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
     </row>
     <row r="68" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>185</v>
@@ -3884,16 +3902,16 @@
         <v>186</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G68" s="4" t="s">
-        <v>80</v>
+      <c r="G68" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>44</v>
@@ -3908,76 +3926,76 @@
       <c r="A69" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C69" s="2" t="s">
+      <c r="B69" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>31</v>
+      <c r="F69" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H69" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I69" s="2" t="s">
+      <c r="H69" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="I69" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="J69" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
     </row>
     <row r="70" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C70" s="4" t="s">
+      <c r="B70" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E70" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>16</v>
+      <c r="E70" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="I70" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I70" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J70" s="4" t="s">
+      <c r="J70" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
     </row>
     <row r="71" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>185</v>
@@ -3986,16 +4004,16 @@
         <v>186</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>44</v>
@@ -4011,7 +4029,7 @@
         <v>183</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>185</v>
@@ -4020,16 +4038,16 @@
         <v>186</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>44</v>
@@ -4045,7 +4063,7 @@
         <v>183</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>185</v>
@@ -4054,16 +4072,16 @@
         <v>186</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>44</v>
@@ -4078,42 +4096,42 @@
       <c r="A74" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C74" s="2" t="s">
+      <c r="B74" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I74" s="2" t="s">
+      <c r="E74" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I74" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="J74" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
     </row>
     <row r="75" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>185</v>
@@ -4122,16 +4140,16 @@
         <v>186</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>44</v>
@@ -4147,7 +4165,7 @@
         <v>183</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>185</v>
@@ -4180,144 +4198,144 @@
       <c r="A77" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C77" s="4" t="s">
+      <c r="B77" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D77" s="4" t="s">
+      <c r="D77" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E77" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="I77" s="4" t="s">
+      <c r="E77" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I77" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J77" s="4" t="s">
+      <c r="J77" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
     </row>
     <row r="78" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C78" s="4" t="s">
+      <c r="B78" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E78" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="I78" s="4" t="s">
+      <c r="E78" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I78" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J78" s="4" t="s">
+      <c r="J78" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
     </row>
     <row r="79" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C79" s="2" t="s">
+      <c r="B79" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H79" s="2" t="s">
+      <c r="E79" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="I79" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J79" s="2" t="s">
+      <c r="J79" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
     </row>
     <row r="80" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C80" s="2" t="s">
+      <c r="B80" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H80" s="2" t="s">
+      <c r="E80" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="I80" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J80" s="2" t="s">
+      <c r="J80" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="1:12" s="8" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+    </row>
+    <row r="81" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>185</v>
@@ -4346,12 +4364,12 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>185</v>
@@ -4360,32 +4378,32 @@
         <v>186</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" s="8" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>185</v>
@@ -4394,22 +4412,22 @@
         <v>186</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
@@ -4422,28 +4440,28 @@
         <v>226</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>233</v>
+        <v>185</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>234</v>
+        <v>32</v>
+      </c>
+      <c r="H84" s="17" t="s">
+        <v>369</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>34</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
@@ -4456,28 +4474,28 @@
         <v>226</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>233</v>
+        <v>185</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>110</v>
+        <v>229</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>236</v>
+        <v>32</v>
+      </c>
+      <c r="H85" s="17" t="s">
+        <v>370</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>34</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
@@ -4490,28 +4508,28 @@
         <v>226</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>110</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H86" s="2" t="s">
-        <v>238</v>
+      <c r="H86" s="17" t="s">
+        <v>377</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>34</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
@@ -4524,33 +4542,33 @@
         <v>226</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>186</v>
+        <v>230</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>239</v>
+        <v>110</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>34</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" s="9" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>183</v>
       </c>
@@ -4558,13 +4576,13 @@
         <v>226</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>186</v>
+        <v>230</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>242</v>
+        <v>110</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>31</v>
@@ -4573,13 +4591,13 @@
         <v>17</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>34</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
@@ -4598,27 +4616,27 @@
         <v>186</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>34</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" s="9" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>183</v>
       </c>
@@ -4632,7 +4650,7 @@
         <v>186</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>31</v>
@@ -4641,18 +4659,18 @@
         <v>17</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>34</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>183</v>
       </c>
@@ -4666,86 +4684,90 @@
         <v>186</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+    </row>
+    <row r="92" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H91" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A92" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="I92" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J92" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A93" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="I93" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J93" s="7" t="s">
-        <v>252</v>
+      <c r="H93" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
@@ -4762,22 +4784,22 @@
         <v>186</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>256</v>
+        <v>246</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J94" s="7" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
@@ -4794,22 +4816,22 @@
         <v>186</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H95" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>256</v>
+      <c r="H95" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
@@ -4820,493 +4842,493 @@
         <v>226</v>
       </c>
       <c r="C96" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A97" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A98" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J98" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="I96" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J96" s="7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="I97" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J97" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="I98" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J98" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="99" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G99" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G99" s="7" t="s">
         <v>32</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="I99" s="7" t="s">
         <v>34</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="100" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D100" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E100" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="E100" s="7" t="s">
-        <v>274</v>
-      </c>
       <c r="F100" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="I100" s="7" t="s">
         <v>34</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="101" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C101" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H101" s="5" t="s">
-        <v>278</v>
+      <c r="H101" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="I101" s="7" t="s">
         <v>34</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="102" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F102" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G102" s="5" t="s">
-        <v>32</v>
+      <c r="G102" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="I102" s="7" t="s">
         <v>34</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="103" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H103" s="7" t="s">
-        <v>281</v>
+        <v>32</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>274</v>
       </c>
       <c r="I103" s="7" t="s">
         <v>34</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="104" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="I104" s="7" t="s">
         <v>34</v>
       </c>
       <c r="J104" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G105" s="7" t="s">
+      <c r="G105" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I105" s="7" t="s">
         <v>34</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="106" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G106" s="5" t="s">
+      <c r="G106" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="I106" s="7" t="s">
         <v>34</v>
       </c>
       <c r="J106" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="107" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G107" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="I107" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="I107" s="7" t="s">
         <v>34</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="108" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="I108" s="7" t="s">
         <v>34</v>
       </c>
       <c r="J108" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="109" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="F109" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G109" s="7" t="s">
-        <v>80</v>
+      <c r="G109" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="I109" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="I109" s="5" t="s">
         <v>34</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="110" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F110" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G110" s="7" t="s">
-        <v>80</v>
+      <c r="G110" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="I110" s="7" t="s">
         <v>34</v>
       </c>
       <c r="J110" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="111" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="F111" s="7" t="s">
         <v>16</v>
@@ -5315,30 +5337,30 @@
         <v>80</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="I111" s="7" t="s">
         <v>34</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="112" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>16</v>
@@ -5347,30 +5369,30 @@
         <v>80</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="I112" s="7" t="s">
         <v>34</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="113" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F113" s="7" t="s">
         <v>16</v>
@@ -5379,30 +5401,30 @@
         <v>80</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="I113" s="7" t="s">
         <v>34</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="114" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F114" s="7" t="s">
         <v>16</v>
@@ -5411,113 +5433,109 @@
         <v>80</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="I114" s="7" t="s">
         <v>34</v>
       </c>
       <c r="J114" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J115" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J116" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B115" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C115" s="7" t="s">
+      <c r="B117" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H117" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J117" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J115" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
-    </row>
-    <row r="116" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="K116" s="2"/>
-      <c r="L116" s="2"/>
-    </row>
-    <row r="117" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
@@ -5527,50 +5545,50 @@
         <v>178</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>186</v>
+        <v>230</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>239</v>
+        <v>110</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="I118" s="2" t="s">
         <v>34</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" s="9" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>186</v>
+        <v>230</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>242</v>
+        <v>110</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>31</v>
@@ -5579,13 +5597,13 @@
         <v>17</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="I119" s="2" t="s">
         <v>34</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
@@ -5595,7 +5613,7 @@
         <v>178</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>185</v>
@@ -5604,32 +5622,32 @@
         <v>186</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="I120" s="2" t="s">
         <v>34</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" s="9" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>185</v>
@@ -5637,8 +5655,8 @@
       <c r="D121" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E121" s="7" t="s">
-        <v>246</v>
+      <c r="E121" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>31</v>
@@ -5647,55 +5665,57 @@
         <v>17</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I121" s="2" t="s">
         <v>34</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A122" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C122" s="7" t="s">
+    <row r="122" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D122" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E122" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F122" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H122" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="I122" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J122" s="7" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E122" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+    </row>
+    <row r="123" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>226</v>
+        <v>294</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>185</v>
@@ -5704,86 +5724,88 @@
         <v>186</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G123" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H123" s="4" t="s">
-        <v>255</v>
+        <v>31</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="I123" s="2" t="s">
         <v>34</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>256</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A124" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>233</v>
+      <c r="A124" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J124" s="2" t="s">
-        <v>189</v>
+        <v>246</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G124" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="I124" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J124" s="7" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>301</v>
+        <v>226</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>250</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G125" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>302</v>
+      <c r="G125" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>189</v>
+        <v>252</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
@@ -5791,15 +5813,15 @@
         <v>178</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E126" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E126" s="7" t="s">
         <v>187</v>
       </c>
       <c r="F126" s="2" t="s">
@@ -5809,7 +5831,7 @@
         <v>80</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="I126" s="2" t="s">
         <v>44</v>
@@ -5823,13 +5845,13 @@
         <v>178</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>187</v>
@@ -5841,7 +5863,7 @@
         <v>17</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="I127" s="2" t="s">
         <v>44</v>
@@ -5855,25 +5877,25 @@
         <v>178</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>192</v>
+        <v>296</v>
       </c>
       <c r="I128" s="2" t="s">
         <v>44</v>
@@ -5887,16 +5909,16 @@
         <v>178</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>16</v>
@@ -5905,7 +5927,7 @@
         <v>17</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="I129" s="2" t="s">
         <v>44</v>
@@ -5919,13 +5941,13 @@
         <v>178</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>191</v>
@@ -5951,13 +5973,13 @@
         <v>178</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>191</v>
@@ -5969,7 +5991,7 @@
         <v>17</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="I131" s="2" t="s">
         <v>44</v>
@@ -5983,13 +6005,13 @@
         <v>178</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>191</v>
@@ -6001,7 +6023,7 @@
         <v>17</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>313</v>
+        <v>192</v>
       </c>
       <c r="I132" s="2" t="s">
         <v>44</v>
@@ -6015,13 +6037,13 @@
         <v>178</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>191</v>
@@ -6033,7 +6055,7 @@
         <v>17</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>194</v>
+        <v>307</v>
       </c>
       <c r="I133" s="2" t="s">
         <v>44</v>
@@ -6047,13 +6069,13 @@
         <v>178</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>191</v>
@@ -6065,7 +6087,7 @@
         <v>17</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="I134" s="2" t="s">
         <v>44</v>
@@ -6079,16 +6101,16 @@
         <v>178</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>16</v>
@@ -6097,7 +6119,7 @@
         <v>17</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>318</v>
+        <v>194</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>44</v>
@@ -6111,25 +6133,25 @@
         <v>178</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="I136" s="2" t="s">
         <v>44</v>
@@ -6143,13 +6165,13 @@
         <v>178</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>196</v>
@@ -6161,7 +6183,7 @@
         <v>17</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
       <c r="I137" s="2" t="s">
         <v>44</v>
@@ -6175,13 +6197,13 @@
         <v>178</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>196</v>
@@ -6190,10 +6212,10 @@
         <v>16</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>201</v>
+        <v>316</v>
       </c>
       <c r="I138" s="2" t="s">
         <v>44</v>
@@ -6207,16 +6229,16 @@
         <v>178</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E139" s="7" t="s">
-        <v>203</v>
+        <v>231</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>16</v>
@@ -6225,7 +6247,7 @@
         <v>17</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>324</v>
+        <v>201</v>
       </c>
       <c r="I139" s="2" t="s">
         <v>44</v>
@@ -6239,16 +6261,16 @@
         <v>178</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E140" s="7" t="s">
-        <v>203</v>
+        <v>231</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>16</v>
@@ -6257,7 +6279,7 @@
         <v>17</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>326</v>
+        <v>201</v>
       </c>
       <c r="I140" s="2" t="s">
         <v>44</v>
@@ -6271,13 +6293,13 @@
         <v>178</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E141" s="7" t="s">
         <v>203</v>
@@ -6289,7 +6311,7 @@
         <v>17</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="I141" s="2" t="s">
         <v>44</v>
@@ -6303,16 +6325,16 @@
         <v>178</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>208</v>
+        <v>231</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>16</v>
@@ -6321,7 +6343,7 @@
         <v>17</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>209</v>
+        <v>322</v>
       </c>
       <c r="I142" s="2" t="s">
         <v>44</v>
@@ -6335,16 +6357,16 @@
         <v>178</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>213</v>
+        <v>231</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>16</v>
@@ -6353,7 +6375,7 @@
         <v>17</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>214</v>
+        <v>324</v>
       </c>
       <c r="I143" s="2" t="s">
         <v>44</v>
@@ -6367,16 +6389,16 @@
         <v>178</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>16</v>
@@ -6385,7 +6407,7 @@
         <v>17</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>332</v>
+        <v>209</v>
       </c>
       <c r="I144" s="2" t="s">
         <v>44</v>
@@ -6399,16 +6421,16 @@
         <v>178</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>16</v>
@@ -6417,7 +6439,7 @@
         <v>17</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>334</v>
+        <v>214</v>
       </c>
       <c r="I145" s="2" t="s">
         <v>44</v>
@@ -6431,13 +6453,13 @@
         <v>178</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>218</v>
@@ -6449,7 +6471,7 @@
         <v>17</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="I146" s="2" t="s">
         <v>44</v>
@@ -6463,16 +6485,16 @@
         <v>178</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>16</v>
@@ -6481,7 +6503,7 @@
         <v>17</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="I147" s="2" t="s">
         <v>44</v>
@@ -6495,16 +6517,16 @@
         <v>178</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>16</v>
@@ -6513,7 +6535,7 @@
         <v>17</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="I148" s="2" t="s">
         <v>44</v>
@@ -6527,13 +6549,13 @@
         <v>178</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>221</v>
@@ -6545,7 +6567,7 @@
         <v>17</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="I149" s="2" t="s">
         <v>44</v>
@@ -6559,16 +6581,16 @@
         <v>178</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>16</v>
@@ -6577,7 +6599,7 @@
         <v>17</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>219</v>
+        <v>336</v>
       </c>
       <c r="I150" s="2" t="s">
         <v>44</v>
@@ -6591,46 +6613,45 @@
         <v>178</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G151" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H151" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="I151" s="15" t="s">
+      <c r="G151" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="I151" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J151" s="15" t="s">
+      <c r="J151" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="K151" s="15"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>223</v>
@@ -6638,161 +6659,161 @@
       <c r="F152" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G152" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H152" s="15" t="s">
+      <c r="G152" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A153" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G153" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H153" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="I153" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J153" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="K153" s="15"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A154" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G154" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H154" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="I154" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J154" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="K154" s="15"/>
+    </row>
+    <row r="155" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B155" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="C155" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D155" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="E155" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F155" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G155" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H155" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="I152" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J152" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="K152" s="15"/>
-    </row>
-    <row r="153" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="14" t="s">
+      <c r="I155" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J155" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="B153" s="15" t="s">
+    </row>
+    <row r="156" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="B156" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C153" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="D153" s="15" t="s">
+      <c r="C156" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="D156" s="10" t="s">
         <v>350</v>
-      </c>
-      <c r="E153" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F153" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G153" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H153" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="I153" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J153" s="14" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="B154" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="D154" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="E154" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F154" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G154" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H154" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="I154" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J154" s="10" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="B155" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="D155" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="E155" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F155" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G155" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H155" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="I155" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="J155" s="10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="B156" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="C156" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="D156" s="10" t="s">
-        <v>354</v>
       </c>
       <c r="E156" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F156" s="10" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G156" s="10" t="s">
         <v>17</v>
       </c>
       <c r="H156" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="I156" s="14" t="s">
-        <v>34</v>
+        <v>351</v>
+      </c>
+      <c r="I156" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="J156" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="K156" s="15"/>
-    </row>
-    <row r="157" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="10" t="s">
+        <v>344</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E157" s="10" t="s">
         <v>27</v>
@@ -6803,130 +6824,129 @@
       <c r="G157" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H157" s="16" t="s">
-        <v>373</v>
+      <c r="H157" s="10" t="s">
+        <v>354</v>
       </c>
       <c r="I157" s="14" t="s">
         <v>34</v>
       </c>
       <c r="J157" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="K157" s="15"/>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A158" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E158" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="E158" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F158" s="2" t="s">
+      <c r="F158" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G158" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H158" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="I158" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J158" s="15" t="s">
-        <v>362</v>
+      <c r="G158" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H158" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="I158" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J158" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="K158" s="15"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>117</v>
+        <v>344</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>344</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>14</v>
+        <v>350</v>
       </c>
       <c r="E159" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F159" s="2" t="s">
+      <c r="F159" s="10" t="s">
         <v>16</v>
       </c>
       <c r="G159" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H159" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="I159" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H159" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="I159" s="14" t="s">
         <v>34</v>
       </c>
       <c r="J159" s="10" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="K159" s="15"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A160" s="7" t="s">
-        <v>363</v>
+      <c r="A160" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>117</v>
+        <v>344</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>14</v>
+        <v>350</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G160" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="G160" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="H160" s="15" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I160" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J160" s="10" t="s">
-        <v>366</v>
+      <c r="J160" s="15" t="s">
+        <v>358</v>
       </c>
       <c r="K160" s="15"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="D161" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E161" s="2" t="s">
+      <c r="E161" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F161" s="2" t="s">
@@ -6936,22 +6956,22 @@
         <v>32</v>
       </c>
       <c r="H161" s="15" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="I161" s="15" t="s">
         <v>34</v>
       </c>
       <c r="J161" s="10" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K161" s="15"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A162" s="2" t="s">
-        <v>363</v>
+      <c r="A162" s="7" t="s">
+        <v>359</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>117</v>
@@ -6965,19 +6985,85 @@
       <c r="F162" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G162" s="15" t="s">
+      <c r="G162" s="10" t="s">
         <v>32</v>
       </c>
       <c r="H162" s="15" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="I162" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J162" s="15" t="s">
-        <v>366</v>
+      <c r="J162" s="10" t="s">
+        <v>362</v>
       </c>
       <c r="K162" s="15"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A163" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G163" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H163" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="I163" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J163" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="K163" s="15"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A164" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G164" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H164" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="I164" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J164" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="K164" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
